--- a/01_분석_설계/시나리오/테스트 취합_최종.xlsx
+++ b/01_분석_설계/시나리오/테스트 취합_최종.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayj6\Desktop\lotto\gitFiles\LottoTeamProject\01_분석_설계\시나리오\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayj6\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF96DD-A150-426A-BFF0-71315A7CC158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB4683-D077-4C3F-B891-8BFDA5F020CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="230">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,17 +789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 로그아웃
-2. 관리자 로그인
-3. 공지사항클릭
-4. faq 페이지 이동
-5. '품절 한달짼데 재입고 안되나요' 상세조회
-6. 답변달기 
- 내용: 안녕하세요 고객님. 해당 상품은 단종상태로 재입고 예정이 없습니다. 죄송합니다.
-7. 등록클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. user로그인
 2. cart 클릭 
 3. 전체조회</t>
@@ -912,17 +901,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>관리자 : 회원가입 말고 바로 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>관리자 주문 관리 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>관리자에서 주문 내역을 확인하고 변경한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 관리자 로그인 : qick1234, !Qetu1357
- 문의 답변 : 제조날짜는 2024.03.01이며 유효기간은 2028.03.01까지 입니다.
- 답변 수정 : 제조날짜는 2024.03.01이며 유효기간은 2028.09.01까지 입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1083,6 +1070,16 @@
   </si>
   <si>
     <t>유저로 로그인해서 관리자 처리내용 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 유저로 로그인
+- id : user12 
+- pw : !User1234
+2. 메인에서 배너확인
+3. 루또 틴트 -&gt; 루또 립스틱으로 상품 변경된거 확인
+4. 루또 바디로션 : Q&amp;A, FAQ 답변달린거 확인
+5. BEST에서 루또 로션 상품추가된거 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1128,6 +1125,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 공지사항 전체조회 페이지
+2.  '제목 : 5월 가정의달 증정이벤트' 상세조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>주소 : 수림로 93번길 54
 상세주소 : 123
 휴대전화번호 : 010-1234-5678
@@ -1143,32 +1145,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id : qick1234
-pw : !Qetu1357</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 공지사항 전체조회 페이지
-2. '제목 : 5월 가정의달 증정이벤트' 상세조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id : user12
-pw : !User1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 유저로 로그인
-- id : user12 
-- pw : !User1234
-2. 메인에서 배너확인하고 그 상품 클릭
-3. 루또 틴트 -&gt; 루또 립스틱으로 상품 변경된거 확인
-4. 루또 바디로션 : Q&amp;A, FAQ 답변달린거 확인
-5. BEST에서 루또 로션 상품추가된거 확인</t>
+    <t xml:space="preserve"> 관리자 로그인 : qick1234, !Qetu1357
+답변할 Q&amp;A : 피부 타입
+ 문의 답변 : 제조날짜는 2024.03.01이며 유효기간은 2028.03.01까지 입니다.
+ 답변 수정 : 안녕하세요 고객님.
+해당 상품은 복합성으로 모든 피부타입에 잘맞습니다. 사용 후 건조하시다면 반품요청을 부탁드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user 12는 '품절 한달짼데 재입고 안되나요' FAQ를 단적이 없어서 lotto12 가 작성한 FAQ에 답변달기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 로그아웃
+2. 관리자 로그인
+3. 공지사항클릭
+4. faq 페이지 이동
+5. lotto12 : '품절 한달짼데 재입고 안되나요' 상세조회
+6. 답변달기 
+ 내용: 안녕하세요 고객님. 해당 상품은 단종상태로 재입고 예정이 없습니다. 죄송합니다.
+7. 등록클릭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1300,18 +1296,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -1677,7 +1667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1849,6 +1839,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1875,27 +1868,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3923,10 +3895,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:F47"/>
+  <dimension ref="B1:F46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999"/>
@@ -3987,7 +3959,7 @@
       <c r="F5" s="53"/>
     </row>
     <row r="6" spans="2:6" s="43" customFormat="1">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="66" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="55" t="s">
@@ -3999,20 +3971,18 @@
       <c r="E6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="59" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="43" customFormat="1" ht="57" customHeight="1">
-      <c r="B7" s="66">
-        <v>0</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
+    <row r="7" spans="2:6" s="43" customFormat="1">
+      <c r="B7" s="49"/>
+      <c r="C7" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="2:6" ht="191.4">
       <c r="B8" s="49">
@@ -4049,13 +4019,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>139</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" s="53"/>
     </row>
@@ -4067,10 +4037,10 @@
         <v>143</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="53"/>
     </row>
@@ -4082,10 +4052,10 @@
         <v>152</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F12" s="53"/>
     </row>
@@ -4094,13 +4064,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>221</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F13" s="53"/>
     </row>
@@ -4109,10 +4079,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="53"/>
@@ -4125,7 +4095,7 @@
         <v>150</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="53"/>
@@ -4138,10 +4108,10 @@
         <v>148</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F16" s="53"/>
     </row>
@@ -4153,120 +4123,118 @@
         <v>149</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F17" s="53"/>
     </row>
     <row r="18" spans="2:6" ht="51" customHeight="1">
-      <c r="B18" s="49">
-        <v>11</v>
-      </c>
+      <c r="B18" s="49"/>
       <c r="C18" s="55" t="s">
         <v>222</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="53"/>
     </row>
     <row r="19" spans="2:6" ht="47.4" customHeight="1">
       <c r="B19" s="49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="55" t="s">
         <v>151</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" s="53"/>
     </row>
     <row r="20" spans="2:6" ht="69.599999999999994">
       <c r="B20" s="49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="53"/>
     </row>
     <row r="21" spans="2:6" ht="104.4">
       <c r="B21" s="49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="50" t="s">
-        <v>203</v>
-      </c>
       <c r="E21" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F21" s="53"/>
     </row>
     <row r="22" spans="2:6" ht="56.4" customHeight="1">
       <c r="B22" s="49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="44"/>
       <c r="F22" s="53"/>
     </row>
     <row r="23" spans="2:6" ht="52.2">
       <c r="B23" s="49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="50" t="s">
         <v>162</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F23" s="53"/>
     </row>
     <row r="24" spans="2:6" ht="48.6" customHeight="1">
       <c r="B24" s="49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="55" t="s">
         <v>156</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F24" s="53"/>
     </row>
     <row r="25" spans="2:6" ht="179.4" customHeight="1">
       <c r="B25" s="49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" s="50" t="s">
         <v>163</v>
@@ -4276,10 +4244,10 @@
     </row>
     <row r="26" spans="2:6" ht="52.2">
       <c r="B26" s="49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>165</v>
@@ -4289,7 +4257,7 @@
     </row>
     <row r="27" spans="2:6" ht="169.8" customHeight="1">
       <c r="B27" s="49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="55" t="s">
         <v>161</v>
@@ -4302,7 +4270,7 @@
     </row>
     <row r="28" spans="2:6" ht="87">
       <c r="B28" s="49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="55" t="s">
         <v>160</v>
@@ -4315,80 +4283,78 @@
     </row>
     <row r="29" spans="2:6" ht="208.8">
       <c r="B29" s="49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="D29" s="50" t="s">
-        <v>209</v>
-      </c>
       <c r="E29" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" s="53"/>
     </row>
     <row r="30" spans="2:6" ht="87">
       <c r="B30" s="49">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E30" s="44"/>
       <c r="F30" s="53"/>
     </row>
     <row r="31" spans="2:6" ht="41.4" customHeight="1">
       <c r="B31" s="49">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31" s="50" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E31" s="44"/>
       <c r="F31" s="53"/>
     </row>
     <row r="32" spans="2:6" ht="39" customHeight="1">
       <c r="B32" s="49">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D32" s="50" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="53"/>
     </row>
     <row r="33" spans="2:6" ht="47.4" customHeight="1">
-      <c r="B33" s="66">
-        <v>26</v>
-      </c>
-      <c r="C33" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="71"/>
+      <c r="B33" s="49">
+        <v>25</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="2:6" ht="69.599999999999994">
       <c r="B34" s="49">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="54" t="s">
         <v>192</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E34" s="44" t="s">
         <v>193</v>
@@ -4397,46 +4363,46 @@
     </row>
     <row r="35" spans="2:6" ht="183" customHeight="1">
       <c r="B35" s="49">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="50" t="s">
         <v>212</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>213</v>
       </c>
       <c r="E35" s="44"/>
       <c r="F35" s="53"/>
     </row>
     <row r="36" spans="2:6" ht="128.4" customHeight="1">
       <c r="B36" s="49">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="55" t="s">
         <v>157</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E36" s="44"/>
       <c r="F36" s="53"/>
     </row>
     <row r="37" spans="2:6" ht="69.599999999999994">
       <c r="B37" s="49">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="55" t="s">
         <v>158</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E37" s="44"/>
       <c r="F37" s="53"/>
     </row>
     <row r="38" spans="2:6" ht="139.19999999999999">
       <c r="B38" s="49">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="55" t="s">
         <v>154</v>
@@ -4449,7 +4415,7 @@
     </row>
     <row r="39" spans="2:6" ht="128.4" customHeight="1">
       <c r="B39" s="49">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="55" t="s">
         <v>153</v>
@@ -4458,41 +4424,43 @@
         <v>220</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F39" s="53"/>
     </row>
-    <row r="40" spans="2:6" ht="52.2">
+    <row r="40" spans="2:6" ht="104.4">
       <c r="B40" s="49">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="50" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F40" s="53"/>
     </row>
     <row r="41" spans="2:6" ht="156.6">
       <c r="B41" s="49">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="55" t="s">
         <v>159</v>
       </c>
       <c r="D41" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="44"/>
+        <v>229</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>228</v>
+      </c>
       <c r="F41" s="53"/>
     </row>
-    <row r="42" spans="2:6" ht="62.4" customHeight="1">
+    <row r="42" spans="2:6" ht="34.799999999999997">
       <c r="B42" s="49">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="55" t="s">
         <v>155</v>
@@ -4505,68 +4473,55 @@
     </row>
     <row r="43" spans="2:6" ht="165.6" customHeight="1">
       <c r="B43" s="49">
+        <v>35</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="53"/>
+    </row>
+    <row r="44" spans="2:6" ht="191.4">
+      <c r="B44" s="49">
         <v>36</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C44" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="44"/>
+      <c r="F44" s="53"/>
+    </row>
+    <row r="45" spans="2:6" ht="226.2">
+      <c r="B45" s="49">
+        <v>37</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="50" t="s">
         <v>217</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="53"/>
-    </row>
-    <row r="44" spans="2:6" ht="59.4" customHeight="1">
-      <c r="B44" s="66">
-        <v>37</v>
-      </c>
-      <c r="C44" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="71"/>
-    </row>
-    <row r="45" spans="2:6" ht="191.4">
-      <c r="B45" s="49">
-        <v>38</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>230</v>
       </c>
       <c r="E45" s="44"/>
       <c r="F45" s="53"/>
     </row>
-    <row r="46" spans="2:6" ht="226.2">
-      <c r="B46" s="49">
-        <v>39</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="53"/>
-    </row>
-    <row r="47" spans="2:6" ht="18" thickBot="1">
-      <c r="B47" s="64">
-        <v>40</v>
-      </c>
-      <c r="C47" s="59" t="s">
+    <row r="46" spans="2:6" ht="18" thickBot="1">
+      <c r="B46" s="65">
+        <v>38</v>
+      </c>
+      <c r="C46" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="62"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
